--- a/Excel/z.xlsx
+++ b/Excel/z.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
   <workbookPr/>
   <bookViews>
-    <workbookView windowWidth="25380" windowHeight="12150"/>
+    <workbookView windowWidth="24975" windowHeight="10725" activeTab="1"/>
   </bookViews>
   <sheets>
     <sheet name="文档版本" sheetId="5" r:id="rId1"/>
@@ -13,7 +13,7 @@
     <sheet name="拉距测试" sheetId="3" r:id="rId4"/>
     <sheet name="特殊情况解释" sheetId="4" r:id="rId5"/>
   </sheets>
-  <calcPr calcId="144525"/>
+  <calcPr calcId="144525" calcMode="manual"/>
 </workbook>
 </file>
 
@@ -1039,11 +1039,11 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="5">
-    <numFmt numFmtId="176" formatCode="000"/>
     <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
     <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
+    <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
     <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
-    <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
+    <numFmt numFmtId="176" formatCode="000"/>
   </numFmts>
   <fonts count="43">
     <font>
@@ -1185,7 +1185,6 @@
     <font>
       <sz val="10"/>
       <name val="Arial"/>
-      <family val="2"/>
       <charset val="0"/>
     </font>
     <font>
@@ -1194,8 +1193,16 @@
       <charset val="134"/>
     </font>
     <font>
+      <b/>
       <sz val="11"/>
-      <color theme="0"/>
+      <color theme="3"/>
+      <name val="等线"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF3F3F76"/>
       <name val="等线"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -1208,9 +1215,24 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <u/>
+      <b/>
       <sz val="11"/>
-      <color rgb="FF0000FF"/>
+      <color rgb="FFFFFFFF"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <i/>
+      <sz val="11"/>
+      <color rgb="FF7F7F7F"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="0"/>
       <name val="等线"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -1218,21 +1240,7 @@
     <font>
       <b/>
       <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF3F3F76"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C0006"/>
+      <color rgb="FF3F3F3F"/>
       <name val="等线"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -1254,7 +1262,14 @@
     <font>
       <u/>
       <sz val="11"/>
-      <color rgb="FF800080"/>
+      <color rgb="FF0000FF"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C6500"/>
       <name val="等线"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -1262,7 +1277,14 @@
     <font>
       <b/>
       <sz val="11"/>
-      <color rgb="FFFFFFFF"/>
+      <color rgb="FFFA7D00"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C0006"/>
       <name val="等线"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -1270,6 +1292,14 @@
     <font>
       <b/>
       <sz val="11"/>
+      <color theme="1"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="15"/>
       <color theme="3"/>
       <name val="等线"/>
       <charset val="134"/>
@@ -1283,32 +1313,9 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <b/>
+      <u/>
       <sz val="11"/>
-      <color theme="1"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <i/>
-      <sz val="11"/>
-      <color rgb="FF7F7F7F"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="18"/>
-      <color theme="3"/>
-      <name val="等线"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C6500"/>
+      <color rgb="FF800080"/>
       <name val="等线"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -1323,18 +1330,10 @@
     </font>
     <font>
       <b/>
-      <sz val="15"/>
+      <sz val="18"/>
       <color theme="3"/>
       <name val="等线"/>
       <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FF3F3F3F"/>
-      <name val="等线"/>
-      <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
@@ -1395,7 +1394,133 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="9"/>
+        <fgColor rgb="FFFFCC99"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFA5A5A5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFF2F2F2"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFC6EFCE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFEB9C"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFC7CE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFFCC"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -1407,31 +1532,31 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.599993896298105"/>
+        <fgColor theme="7" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.599993896298105"/>
+        <fgColor theme="4" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="7"/>
+        <fgColor theme="9"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.799981688894314"/>
+        <fgColor theme="5" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.799981688894314"/>
+        <fgColor theme="9" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -1443,133 +1568,7 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFF2F2F2"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFCC99"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFC7CE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFC6EFCE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFA5A5A5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFFFCC"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFEB9C"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
         <fgColor theme="5" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -1938,15 +1937,6 @@
       </top>
       <bottom style="thin">
         <color rgb="FF7F7F7F"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="double">
-        <color rgb="FFFF8001"/>
       </bottom>
       <diagonal/>
     </border>
@@ -1967,16 +1957,16 @@
     </border>
     <border>
       <left style="thin">
-        <color rgb="FFB2B2B2"/>
+        <color rgb="FF3F3F3F"/>
       </left>
       <right style="thin">
-        <color rgb="FFB2B2B2"/>
+        <color rgb="FF3F3F3F"/>
       </right>
       <top style="thin">
-        <color rgb="FFB2B2B2"/>
+        <color rgb="FF3F3F3F"/>
       </top>
       <bottom style="thin">
-        <color rgb="FFB2B2B2"/>
+        <color rgb="FF3F3F3F"/>
       </bottom>
       <diagonal/>
     </border>
@@ -1984,8 +1974,8 @@
       <left/>
       <right/>
       <top/>
-      <bottom style="medium">
-        <color theme="4" tint="0.499984740745262"/>
+      <bottom style="double">
+        <color rgb="FFFF8001"/>
       </bottom>
       <diagonal/>
     </border>
@@ -2005,22 +1995,31 @@
       <right/>
       <top/>
       <bottom style="medium">
+        <color theme="4" tint="0.499984740745262"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
         <color theme="4"/>
       </bottom>
       <diagonal/>
     </border>
     <border>
       <left style="thin">
-        <color rgb="FF3F3F3F"/>
+        <color rgb="FFB2B2B2"/>
       </left>
       <right style="thin">
-        <color rgb="FF3F3F3F"/>
+        <color rgb="FFB2B2B2"/>
       </right>
       <top style="thin">
-        <color rgb="FF3F3F3F"/>
+        <color rgb="FFB2B2B2"/>
       </top>
       <bottom style="thin">
-        <color rgb="FF3F3F3F"/>
+        <color rgb="FFB2B2B2"/>
       </bottom>
       <diagonal/>
     </border>
@@ -2030,10 +2029,10 @@
     <xf numFmtId="42" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="24" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="25" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="27" fillId="19" borderId="29" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="24" fillId="9" borderId="29" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="44" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
@@ -2042,136 +2041,136 @@
     <xf numFmtId="41" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="24" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="25" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="35" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="43" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="28" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="32" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="39" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="26" borderId="36" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="28" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="23" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="38" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="41" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="27" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="37" fillId="0" borderId="35" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="40" fillId="0" borderId="35" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="28" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="43" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="23" fillId="0" borderId="34" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="23" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="28" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="25" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="29" fillId="13" borderId="31" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="34" fillId="13" borderId="29" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="31" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="26" fillId="11" borderId="30" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="26" borderId="32" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="25" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="23" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="28" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="33" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="31" fillId="0" borderId="32" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="34" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="36" fillId="0" borderId="33" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="37" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="30" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="36" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="33" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="40" fillId="0" borderId="35" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="25" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="39" fillId="0" borderId="35" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="28" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="23" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="25" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="33" fillId="0" borderId="33" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="23" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="41" fillId="18" borderId="36" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="26" fillId="18" borderId="29" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="32" fillId="25" borderId="31" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="24" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="23" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="30" fillId="0" borderId="30" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="35" fillId="0" borderId="34" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="29" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="38" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="24" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="23" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="24" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="24" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="25" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="18" fillId="0" borderId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="24" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="25" fillId="35" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="24" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="25" fillId="38" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="23" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="28" fillId="37" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="23" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="28" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="24" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="25" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="24" fillId="34" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="25" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="23" fillId="35" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="28" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="24" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="25" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="23" fillId="36" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="28" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="23" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="28" fillId="34" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="24" fillId="37" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="25" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="23" fillId="38" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="28" fillId="36" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="42" fillId="0" borderId="0">
@@ -2999,7 +2998,7 @@
   <sheetPr/>
   <dimension ref="A1:E12"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="F9" sqref="F9"/>
     </sheetView>
   </sheetViews>
@@ -3118,8 +3117,8 @@
   <sheetPr/>
   <dimension ref="A1:I123"/>
   <sheetViews>
-    <sheetView topLeftCell="A38" workbookViewId="0">
-      <selection activeCell="D53" sqref="D53"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="B14" sqref="B14:B19"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5"/>
@@ -3180,7 +3179,7 @@
       <c r="H3" s="88"/>
       <c r="I3" s="129"/>
     </row>
-    <row r="4" ht="40.5" hidden="1" spans="1:9">
+    <row r="4" ht="22" customHeight="1" spans="1:9">
       <c r="A4" s="84"/>
       <c r="B4" s="85"/>
       <c r="C4" s="85"/>
